--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1038.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1038.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8226727034355111</v>
+        <v>0.83761066198349</v>
       </c>
       <c r="B1">
-        <v>3.35538675511217</v>
+        <v>1.083747863769531</v>
       </c>
       <c r="C1">
-        <v>2.774555904118216</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.541123723895725</v>
+        <v>2.137610673904419</v>
       </c>
       <c r="E1">
-        <v>2.009381904513579</v>
+        <v>1.081295251846313</v>
       </c>
     </row>
   </sheetData>
